--- a/Método de identificación/UNIÓN DE CARACTERISTICAS/pruebasRE-holdout.xlsx
+++ b/Método de identificación/UNIÓN DE CARACTERISTICAS/pruebasRE-holdout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ContrasteB-Desviacion-Brillo" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Concatenadas_var_dis_asi" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -146,9 +147,6 @@
     <t>[Brillo AsimetriaHist]</t>
   </si>
   <si>
-    <t xml:space="preserve">[ContrasteB Varianza]      correlación=0.9                                                                                                                                                                                         [Desviacion Disimilitud]     correlación=0.9                                                                                                                                                                                                       [Brillo AsimetriaHist]     correlación=0.41      </t>
-  </si>
-  <si>
     <t>TEST_No balanceado (0-102644
 1-3522)</t>
   </si>
@@ -265,6 +263,9 @@
   <si>
     <t>[[2985  537]
  [1033 2489]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ContrasteB Disimilitud]      correlación=0.9                                                                                                                                                                                         [Desviacion Varianza]     correlación=0.9                                                                                                                                                                                                       [Brillo AsimetriaHist]     correlación=0.41      </t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -1551,7 +1552,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1626,7 +1627,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>0.89898334414882108</v>
@@ -1635,7 +1636,7 @@
         <v>0.89823490956635432</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>0.89898334414882108</v>
@@ -1655,7 +1656,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>0.94020684588286274</v>
@@ -1664,7 +1665,7 @@
         <v>0.48230305007339752</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>0.94020684588286274</v>
@@ -1684,7 +1685,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>0.9082907438955139</v>
@@ -1693,7 +1694,7 @@
         <v>0.90152439024390241</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>0.9082907438955139</v>
@@ -1713,7 +1714,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1788,7 +1789,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>0.65130867402119841</v>
@@ -1797,7 +1798,7 @@
         <v>0.64399293286219084</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <v>0.65130867402119841</v>
@@ -1817,7 +1818,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>0.53596254921537967</v>
@@ -1826,7 +1827,7 @@
         <v>9.1772210239109198E-2</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>0.53596254921537967</v>
@@ -1846,7 +1847,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>0.59980124929017609</v>
@@ -1855,7 +1856,7 @@
         <v>0.63845068616134404</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>0.59980124929017609</v>
@@ -1875,7 +1876,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1950,7 +1951,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22">
         <v>0.67510274713389573</v>
@@ -1959,7 +1960,7 @@
         <v>0.67418655097613878</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22">
         <v>0.67510274713389573</v>
@@ -1979,7 +1980,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>0.7377314771207355</v>
@@ -1988,7 +1989,7 @@
         <v>0.14178276414745411</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23">
         <v>0.7377314771207355</v>
@@ -2008,7 +2009,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>0.76192504258943783</v>
@@ -2017,7 +2018,7 @@
         <v>0.73283415644416117</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24">
         <v>0.76192504258943783</v>
@@ -2037,7 +2038,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2112,7 +2113,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30">
         <v>0.73956305429374869</v>
@@ -2121,7 +2122,7 @@
         <v>0.74018126888217528</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>0.73956305429374869</v>
@@ -2141,7 +2142,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>0.74162161143869032</v>
@@ -2150,7 +2151,7 @@
         <v>0.15359930883396589</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>0.74162161143869032</v>
@@ -2170,7 +2171,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>0.77711527541169789</v>
@@ -2179,7 +2180,7 @@
         <v>0.76023213194868655</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>0.77711527541169789</v>
@@ -2212,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,7 +2227,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2301,7 +2302,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>0.92169586848366858</v>
@@ -2310,7 +2311,7 @@
         <v>0.92120156726164548</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>0.92169586848366858</v>
@@ -2330,7 +2331,7 @@
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>0.9328316033381685</v>
@@ -2339,7 +2340,7 @@
         <v>0.44536050400560012</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>0.9328316033381685</v>
@@ -2359,7 +2360,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>0.89281658148779108</v>
@@ -2368,7 +2369,7 @@
         <v>0.8835056318469372</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>0.89281658148779108</v>
@@ -2463,7 +2464,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>0.66796452520008653</v>
@@ -2472,7 +2473,7 @@
         <v>0.66062347999115645</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>0.66796452520008653</v>
@@ -2492,7 +2493,7 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>0.85807132226889959</v>
@@ -2501,7 +2502,7 @@
         <v>3.3234954446297961E-2</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>0.85807132226889959</v>
@@ -2521,7 +2522,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>0.70570698466780235</v>
@@ -2530,7 +2531,7 @@
         <v>0.71520813298530017</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>0.70570698466780235</v>
@@ -2625,7 +2626,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22">
         <v>0.64741509842093881</v>
@@ -2634,7 +2635,7 @@
         <v>0.64580617122990003</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>0.64741509842093881</v>
@@ -2654,7 +2655,7 @@
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>0.73750541604656861</v>
@@ -2663,7 +2664,7 @@
         <v>8.7671053493092385E-2</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23">
         <v>0.73750541604656861</v>
@@ -2683,7 +2684,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>0.58816013628620101</v>
@@ -2692,7 +2693,7 @@
         <v>0.62309990905547608</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24">
         <v>0.58816013628620101</v>
@@ -2787,7 +2788,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30">
         <v>0.73848150551589875</v>
@@ -2796,7 +2797,7 @@
         <v>0.74050225370251133</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30">
         <v>0.73848150551589875</v>
@@ -2816,7 +2817,7 @@
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>0.71032157187800238</v>
@@ -2825,7 +2826,7 @@
         <v>0.14123757399754269</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31">
         <v>0.71032157187800238</v>
@@ -2845,7 +2846,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>0.78364565587734247</v>
@@ -2854,7 +2855,7 @@
         <v>0.76845943482224255</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32">
         <v>0.78364565587734247</v>
